--- a/raxml_trees/phylogenetic_tree_info.xlsx
+++ b/raxml_trees/phylogenetic_tree_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/raxml_trees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F6A3F-947A-C241-9799-A1C97E0402A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C71DE4-0CA5-C74D-AAD3-CBDA79DB7D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="-1980" windowWidth="28040" windowHeight="17260" xr2:uid="{4F729734-7032-0044-A482-77E5A0BBAAE9}"/>
+    <workbookView xWindow="38080" yWindow="-1980" windowWidth="28040" windowHeight="17260" xr2:uid="{4F729734-7032-0044-A482-77E5A0BBAAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,10 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,14 +584,14 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,7 +907,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -931,7 +930,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -954,7 +953,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -977,7 +976,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1000,7 +999,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1023,7 +1022,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1046,7 +1045,7 @@
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -1069,7 +1068,7 @@
       </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="1" t="s">
